--- a/data/CS1_2/case57/case57_2030.xlsx
+++ b/data/CS1_2/case57/case57_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\case57\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3D1222-AE3E-47AF-B6D3-D8BDA8102B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF667E7-5A3D-4C70-8E55-C405A8673C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24638,7 +24638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2598AAAA-7EAD-4F76-960C-0EFD4B0462A1}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A16"/>
     </sheetView>
   </sheetViews>
@@ -47786,7 +47786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B831FB54-AAC9-4DA0-8F5F-B857625140FA}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
@@ -48627,12 +48627,12 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <f>B2*5</f>
-        <v>15</v>
+        <f>B2*4</f>
+        <v>12</v>
       </c>
       <c r="D2" s="2">
         <f>C2*0.5</f>
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2">
         <v>0.95</v>
@@ -48656,12 +48656,12 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C9" si="0">B3*5</f>
-        <v>15</v>
+        <f t="shared" ref="C3:C9" si="0">B3*4</f>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D9" si="1">C3*0.5</f>
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>0.95</v>
@@ -48686,11 +48686,11 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
         <v>0.95</v>
@@ -48715,11 +48715,11 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
         <v>0.95</v>
@@ -48744,11 +48744,11 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
         <v>0.95</v>
@@ -48773,11 +48773,11 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2">
         <v>0.95</v>
@@ -48802,11 +48802,11 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2">
         <v>0.95</v>
@@ -48831,11 +48831,11 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2">
         <v>0.95</v>
